--- a/test/data/test_import.xlsx
+++ b/test/data/test_import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Development/kb_apps/GenericsAPI/test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>condition_1</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>WRI_RS00025_CDS_1</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,11 +686,11 @@
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4">
-        <v>0.9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
       </c>
       <c r="D4">
         <v>1.1000000000000001</v>

--- a/test/data/test_import.xlsx
+++ b/test/data/test_import.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19120" yWindow="-20880" windowWidth="17360" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="16020" yWindow="-19640" windowWidth="17360" windowHeight="18380" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="col_conditionset" sheetId="3" r:id="rId2"/>
+    <sheet name="col_attribute_mapping" sheetId="3" r:id="rId2"/>
     <sheet name="col_mapping" sheetId="5" r:id="rId3"/>
-    <sheet name="row_conditionset" sheetId="4" r:id="rId4"/>
+    <sheet name="row_attribute_mapping" sheetId="4" r:id="rId4"/>
     <sheet name="row_mapping" sheetId="6" r:id="rId5"/>
     <sheet name="metadata" sheetId="2" r:id="rId6"/>
   </sheets>
@@ -34,18 +34,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
-    <t>condition_1</t>
-  </si>
-  <si>
-    <t>condition_2</t>
-  </si>
-  <si>
-    <t>condition_3</t>
-  </si>
-  <si>
-    <t>condition_4</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -70,12 +58,6 @@
     <t>test_col_normalization</t>
   </si>
   <si>
-    <t>Factor</t>
-  </si>
-  <si>
-    <t>Factor Ontology</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -100,39 +82,6 @@
     <t>UO_0000275</t>
   </si>
   <si>
-    <t>test_factor_1</t>
-  </si>
-  <si>
-    <t>test_factor_2</t>
-  </si>
-  <si>
-    <t>test_factor_3</t>
-  </si>
-  <si>
-    <t>test_col_condition_1</t>
-  </si>
-  <si>
-    <t>test_col_condition_2</t>
-  </si>
-  <si>
-    <t>test_col_condition_3</t>
-  </si>
-  <si>
-    <t>test_col_condition_4</t>
-  </si>
-  <si>
-    <t>test_row_condition_1</t>
-  </si>
-  <si>
-    <t>test_row_condition_2</t>
-  </si>
-  <si>
-    <t>test_row_condition_3</t>
-  </si>
-  <si>
-    <t>condition_name</t>
-  </si>
-  <si>
     <t>col_name</t>
   </si>
   <si>
@@ -155,6 +104,57 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>test_attribute_2</t>
+  </si>
+  <si>
+    <t>test_attribute_1</t>
+  </si>
+  <si>
+    <t>test_attribute_3</t>
+  </si>
+  <si>
+    <t>Attribute Ontology</t>
+  </si>
+  <si>
+    <t>test_row_instance_1</t>
+  </si>
+  <si>
+    <t>test_row_instance_2</t>
+  </si>
+  <si>
+    <t>test_row_instance_3</t>
+  </si>
+  <si>
+    <t>test_col_instance_1</t>
+  </si>
+  <si>
+    <t>test_col_instance_2</t>
+  </si>
+  <si>
+    <t>test_col_instance_3</t>
+  </si>
+  <si>
+    <t>test_col_instance_4</t>
+  </si>
+  <si>
+    <t>instance_1</t>
+  </si>
+  <si>
+    <t>instance_2</t>
+  </si>
+  <si>
+    <t>instance_3</t>
+  </si>
+  <si>
+    <t>instance_4</t>
   </si>
 </sst>
 </file>
@@ -628,29 +628,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -684,13 +684,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>1.1000000000000001</v>
@@ -709,7 +709,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,42 +719,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
@@ -797,16 +797,16 @@
     </row>
     <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5">
         <v>9</v>
@@ -840,49 +840,49 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -895,46 +895,46 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H23"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -948,16 +948,16 @@
     </row>
     <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5">
         <v>4</v>
@@ -971,16 +971,16 @@
     </row>
     <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5">
         <v>7</v>
@@ -1002,41 +1002,41 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1048,50 +1048,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/test_import.xlsx
+++ b/test/data/test_import.xlsx
@@ -45,13 +45,13 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>Attribute Ontology</t>
+    <t>Attribute Ontology ID</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Unit Ontology</t>
+    <t>Unit Ontology ID</t>
   </si>
   <si>
     <t>test_col_instance_1</t>
@@ -186,7 +186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -201,16 +201,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -237,10 +237,10 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -339,28 +339,28 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -370,20 +370,20 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -431,16 +431,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -466,8 +460,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffff0000"/>
       <rgbColor rgb="ff00ff00"/>
     </indexedColors>
@@ -668,17 +662,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -706,10 +700,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -957,12 +951,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1249,7 +1243,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1277,10 +1271,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1792,47 +1786,47 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1851,8 +1845,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="21" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="21" customWidth="1"/>
+    <col min="1" max="5" width="10.8516" style="20" customWidth="1"/>
+    <col min="6" max="256" width="10.8516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -1962,8 +1956,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="10.8516" style="22" customWidth="1"/>
-    <col min="8" max="256" width="10.8516" style="22" customWidth="1"/>
+    <col min="1" max="7" width="10.8516" style="21" customWidth="1"/>
+    <col min="8" max="256" width="10.8516" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
@@ -2059,13 +2053,13 @@
       </c>
     </row>
     <row r="5" ht="17" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" ht="17" customHeight="1">
       <c r="A6" s="2"/>
@@ -2129,8 +2123,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="24" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="24" customWidth="1"/>
+    <col min="1" max="5" width="10.8516" style="22" customWidth="1"/>
+    <col min="6" max="256" width="10.8516" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">
@@ -2236,8 +2230,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="25" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="25" customWidth="1"/>
+    <col min="1" max="5" width="10.8516" style="23" customWidth="1"/>
+    <col min="6" max="256" width="10.8516" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1">

--- a/test/data/test_import.xlsx
+++ b/test/data/test_import.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tian/Development/kb_apps/GenericsAPI/test/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="38480" yWindow="-4020" windowWidth="15960" windowHeight="15940" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId4"/>
-    <sheet name="col_attribute_mapping" sheetId="2" r:id="rId5"/>
-    <sheet name="col_mapping" sheetId="3" r:id="rId6"/>
-    <sheet name="row_attribute_mapping" sheetId="4" r:id="rId7"/>
-    <sheet name="row_mapping" sheetId="5" r:id="rId8"/>
-    <sheet name="metadata" sheetId="6" r:id="rId9"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="col_attribute_mapping" sheetId="2" r:id="rId2"/>
+    <sheet name="col_mapping" sheetId="3" r:id="rId3"/>
+    <sheet name="row_attribute_mapping" sheetId="4" r:id="rId4"/>
+    <sheet name="row_mapping" sheetId="5" r:id="rId5"/>
+    <sheet name="metadata" sheetId="6" r:id="rId6"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>instance_1</t>
   </si>
@@ -156,23 +172,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -366,111 +369,141 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -672,7 +705,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -691,7 +724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,7 +754,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,7 +780,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -773,7 +806,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,7 +832,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,7 +858,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,7 +884,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,7 +910,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -903,7 +936,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -929,7 +962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,9 +975,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -961,7 +1000,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -980,7 +1019,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,7 +1045,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,7 +1071,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,7 +1097,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,7 +1123,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1149,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,7 +1175,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1201,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1227,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1253,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1227,9 +1266,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1243,7 +1288,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1262,7 +1307,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1337,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,7 +1363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,7 +1389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,7 +1415,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1396,7 +1441,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,7 +1467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1448,7 +1493,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1474,7 +1519,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1500,7 +1545,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1513,45 +1558,52 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="5" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4">
@@ -1567,8 +1619,8 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4">
@@ -1584,59 +1636,59 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E4" s="4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1645,7 +1697,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1653,54 +1705,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.8516" style="5" customWidth="1"/>
-    <col min="9" max="256" width="10.8516" style="5" customWidth="1"/>
+    <col min="1" max="8" width="10.83203125" style="5" customWidth="1"/>
+    <col min="9" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
-      <c r="A1" t="s" s="6">
+    <row r="1" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s" s="7">
+      <c r="H1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="32" customHeight="1">
-      <c r="A2" t="s" s="8">
+    <row r="2" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s" s="9">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="11">
@@ -1716,17 +1768,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="48" customHeight="1">
-      <c r="A3" t="s" s="13">
+    <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="15">
+      <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="15">
+      <c r="D3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="16">
@@ -1742,17 +1794,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="48" customHeight="1">
-      <c r="A4" t="s" s="13">
+    <row r="4" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="15">
+      <c r="D4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="16">
@@ -1768,7 +1820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -1778,7 +1830,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -1788,7 +1840,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1798,7 +1850,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1808,7 +1860,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1818,7 +1870,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1830,7 +1882,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1838,101 +1890,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="20" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="20" customWidth="1"/>
+    <col min="1" max="5" width="10.83203125" style="20" customWidth="1"/>
+    <col min="6" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1941,7 +1993,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1949,110 +2001,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.8516" style="21" customWidth="1"/>
-    <col min="8" max="256" width="10.8516" style="21" customWidth="1"/>
+    <col min="1" max="7" width="10.83203125" style="21" customWidth="1"/>
+    <col min="8" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
-      <c r="A1" t="s" s="6">
+    <row r="1" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" ht="32" customHeight="1">
-      <c r="A2" t="s" s="8">
+    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s" s="9">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s" s="10">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s" s="10">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
       </c>
       <c r="F2" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="48" customHeight="1">
-      <c r="A3" t="s" s="13">
+    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="15">
+      <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="15">
+      <c r="D3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="16">
         <v>4</v>
       </c>
-      <c r="F3" s="16">
-        <v>5</v>
+      <c r="F3" s="11">
+        <v>4</v>
       </c>
       <c r="G3" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="48" customHeight="1">
-      <c r="A4" t="s" s="13">
+    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="14">
+      <c r="B4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="15">
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="15">
+      <c r="D4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="16">
         <v>7</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="11">
         <v>8</v>
       </c>
       <c r="G4" s="16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="17" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2061,7 +2115,7 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2070,7 +2124,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2079,7 +2133,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2088,7 +2142,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2097,7 +2151,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2108,7 +2162,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2116,97 +2170,99 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="22" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="22" customWidth="1"/>
+    <col min="1" max="5" width="10.83203125" style="22" customWidth="1"/>
+    <col min="6" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2215,7 +2271,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2223,109 +2279,109 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="10.8516" style="23" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="23" customWidth="1"/>
+    <col min="1" max="5" width="10.83203125" style="23" customWidth="1"/>
+    <col min="6" max="256" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2334,7 +2390,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
